--- a/DaySale_2025-05-20_21-51.xlsx
+++ b/DaySale_2025-05-20_21-51.xlsx
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.910702861613</v>
+        <v>45797.910763397464</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1426,7 +1426,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.910702861613</v>
+        <v>45797.910763397464</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/DaySale_2025-05-20_21-51.xlsx
+++ b/DaySale_2025-05-20_21-51.xlsx
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.910763397464</v>
+        <v>45797.910780986407</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1426,7 +1426,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.910763397464</v>
+        <v>45797.910780986407</v>
       </c>
       <c r="K4" s="4"/>
     </row>
